--- a/out/CE/FigA_1.xlsx
+++ b/out/CE/FigA_1.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34513E29-8130-4E50-90BA-69129989165E}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.85741000000000001</v>
+        <v>0.85843000000000003</v>
       </c>
       <c r="B1">
+        <v>0.86655000000000004</v>
+      </c>
+      <c r="C1">
+        <v>0.85219</v>
+      </c>
+      <c r="D1">
+        <v>0.85511000000000004</v>
+      </c>
+      <c r="E1">
+        <v>0.85336999999999996</v>
+      </c>
+      <c r="F1">
+        <v>0.85911999999999999</v>
+      </c>
+      <c r="G1">
+        <v>0.84138999999999997</v>
+      </c>
+      <c r="H1">
+        <v>0.82482999999999995</v>
+      </c>
+      <c r="I1">
+        <v>0.84716000000000002</v>
+      </c>
+      <c r="J1">
+        <v>0.86021000000000003</v>
+      </c>
+      <c r="K1">
+        <v>0.86617999999999995</v>
+      </c>
+      <c r="L1">
+        <v>0.84982999999999997</v>
+      </c>
+      <c r="M1">
+        <v>0.84397999999999995</v>
+      </c>
+      <c r="N1">
+        <v>0.84413000000000005</v>
+      </c>
+      <c r="O1">
+        <v>0.85870999999999997</v>
+      </c>
+      <c r="P1">
+        <v>0.85724999999999996</v>
+      </c>
+      <c r="Q1">
+        <v>0.86717</v>
+      </c>
+      <c r="R1">
+        <v>0.84748999999999997</v>
+      </c>
+      <c r="S1">
+        <v>0.86192999999999997</v>
+      </c>
+      <c r="T1">
+        <v>0.84480999999999995</v>
+      </c>
+      <c r="U1">
+        <v>0.84533999999999998</v>
+      </c>
+      <c r="V1">
+        <v>0.87200999999999995</v>
+      </c>
+      <c r="W1">
+        <v>0.86341000000000001</v>
+      </c>
+      <c r="X1">
+        <v>0.84502999999999995</v>
+      </c>
+      <c r="Y1">
+        <v>0.85453999999999997</v>
+      </c>
+      <c r="Z1">
+        <v>0.85828000000000004</v>
+      </c>
+      <c r="AA1">
+        <v>0.85294999999999999</v>
+      </c>
+      <c r="AB1">
+        <v>0.86053999999999997</v>
+      </c>
+      <c r="AC1">
+        <v>0.83748999999999996</v>
+      </c>
+      <c r="AD1">
+        <v>0.82945000000000002</v>
+      </c>
+      <c r="AE1">
+        <v>0.83475999999999995</v>
+      </c>
+      <c r="AF1">
+        <v>0.86063000000000001</v>
+      </c>
+      <c r="AG1">
+        <v>0.82996000000000003</v>
+      </c>
+      <c r="AH1">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="AI1">
+        <v>0.85363999999999995</v>
+      </c>
+      <c r="AJ1">
+        <v>0.81772</v>
+      </c>
+      <c r="AK1">
+        <v>0.87531000000000003</v>
+      </c>
+      <c r="AL1">
+        <v>0.84114999999999995</v>
+      </c>
+      <c r="AM1">
+        <v>0.85550999999999999</v>
+      </c>
+      <c r="AN1">
+        <v>0.85729</v>
+      </c>
+      <c r="AO1">
+        <v>0.83618999999999999</v>
+      </c>
+      <c r="AP1">
+        <v>0.85589000000000004</v>
+      </c>
+      <c r="AQ1">
+        <v>0.84294999999999998</v>
+      </c>
+      <c r="AR1">
+        <v>0.84009999999999996</v>
+      </c>
+      <c r="AS1">
+        <v>0.86336000000000002</v>
+      </c>
+      <c r="AT1">
+        <v>0.84099000000000002</v>
+      </c>
+      <c r="AU1">
+        <v>0.84531999999999996</v>
+      </c>
+      <c r="AV1">
+        <v>0.85148000000000001</v>
+      </c>
+      <c r="AW1">
+        <v>0.86497999999999997</v>
+      </c>
+      <c r="AX1">
+        <v>0.86301000000000005</v>
+      </c>
+      <c r="AY1">
+        <v>0.85490999999999995</v>
+      </c>
+      <c r="AZ1">
+        <v>0.86653000000000002</v>
+      </c>
+      <c r="BA1">
+        <v>0.81172999999999995</v>
+      </c>
+      <c r="BB1">
+        <v>0.84914000000000001</v>
+      </c>
+      <c r="BC1">
+        <v>0.85948000000000002</v>
+      </c>
+      <c r="BD1">
+        <v>0.86680999999999997</v>
+      </c>
+      <c r="BE1">
+        <v>0.85563999999999996</v>
+      </c>
+      <c r="BF1">
+        <v>0.86423000000000005</v>
+      </c>
+      <c r="BG1">
+        <v>0.84677000000000002</v>
+      </c>
+      <c r="BH1">
+        <v>0.86404999999999998</v>
+      </c>
+      <c r="BI1">
+        <v>0.84562999999999999</v>
+      </c>
+      <c r="BJ1">
+        <v>0.83028999999999997</v>
+      </c>
+      <c r="BK1">
+        <v>0.85419999999999996</v>
+      </c>
+      <c r="BL1">
+        <v>0.83369000000000004</v>
+      </c>
+      <c r="BM1">
+        <v>0.84087000000000001</v>
+      </c>
+      <c r="BN1">
+        <v>0.84482999999999997</v>
+      </c>
+      <c r="BO1">
+        <v>0.85255000000000003</v>
+      </c>
+      <c r="BP1">
+        <v>0.85165000000000002</v>
+      </c>
+      <c r="BQ1">
+        <v>0.82816000000000001</v>
+      </c>
+      <c r="BR1">
+        <v>0.83716000000000002</v>
+      </c>
+      <c r="BS1">
+        <v>0.85509000000000002</v>
+      </c>
+      <c r="BT1">
+        <v>0.80240999999999996</v>
+      </c>
+      <c r="BU1">
+        <v>0.82776000000000005</v>
+      </c>
+      <c r="BV1">
+        <v>0.84882999999999997</v>
+      </c>
+      <c r="BW1">
+        <v>0.85474000000000006</v>
+      </c>
+      <c r="BX1">
+        <v>0.87117</v>
+      </c>
+      <c r="BY1">
+        <v>0.87014000000000002</v>
+      </c>
+      <c r="BZ1">
+        <v>0.87022999999999995</v>
+      </c>
+      <c r="CA1">
+        <v>0.86358999999999997</v>
+      </c>
+      <c r="CB1">
+        <v>0.84899000000000002</v>
+      </c>
+      <c r="CC1">
+        <v>0.85941000000000001</v>
+      </c>
+      <c r="CD1">
+        <v>0.85972000000000004</v>
+      </c>
+      <c r="CE1">
+        <v>0.84418000000000004</v>
+      </c>
+      <c r="CF1">
+        <v>0.83520000000000005</v>
+      </c>
+      <c r="CG1">
+        <v>0.86795</v>
+      </c>
+      <c r="CH1">
+        <v>0.87905999999999995</v>
+      </c>
+      <c r="CI1">
+        <v>0.83960000000000001</v>
+      </c>
+      <c r="CJ1">
+        <v>0.86495</v>
+      </c>
+      <c r="CK1">
+        <v>0.86316999999999999</v>
+      </c>
+      <c r="CL1">
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="CM1">
+        <v>0.85487999999999997</v>
+      </c>
+      <c r="CN1">
+        <v>0.81996000000000002</v>
+      </c>
+      <c r="CO1">
+        <v>0.86499000000000004</v>
+      </c>
+      <c r="CP1">
+        <v>0.82425999999999999</v>
+      </c>
+      <c r="CQ1">
+        <v>0.84601000000000004</v>
+      </c>
+      <c r="CR1">
+        <v>0.84248999999999996</v>
+      </c>
+      <c r="CS1">
+        <v>0.83948999999999996</v>
+      </c>
+      <c r="CT1">
+        <v>0.84043000000000001</v>
+      </c>
+      <c r="CU1">
+        <v>0.82816999999999996</v>
+      </c>
+      <c r="CV1">
+        <v>0.85762000000000005</v>
+      </c>
+      <c r="CW1">
+        <v>0.84980829999999974</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.84179999999999999</v>
+      </c>
+      <c r="B2">
+        <v>0.85379000000000005</v>
+      </c>
+      <c r="C2">
+        <v>0.86597000000000002</v>
+      </c>
+      <c r="D2">
+        <v>0.84677000000000002</v>
+      </c>
+      <c r="E2">
+        <v>0.83508000000000004</v>
+      </c>
+      <c r="F2">
+        <v>0.86502000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.84191000000000005</v>
+      </c>
+      <c r="H2">
+        <v>0.85557000000000005</v>
+      </c>
+      <c r="I2">
+        <v>0.82806000000000002</v>
+      </c>
+      <c r="J2">
+        <v>0.83979999999999999</v>
+      </c>
+      <c r="K2">
+        <v>0.84835000000000005</v>
+      </c>
+      <c r="L2">
+        <v>0.85792000000000002</v>
+      </c>
+      <c r="M2">
+        <v>0.85385999999999995</v>
+      </c>
+      <c r="N2">
+        <v>0.85811000000000004</v>
+      </c>
+      <c r="O2">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="P2">
+        <v>0.84711999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>0.84484999999999999</v>
+      </c>
+      <c r="R2">
+        <v>0.85472999999999999</v>
+      </c>
+      <c r="S2">
+        <v>0.86258000000000001</v>
+      </c>
+      <c r="T2">
+        <v>0.84599000000000002</v>
+      </c>
+      <c r="U2">
+        <v>0.84897</v>
+      </c>
+      <c r="V2">
+        <v>0.85445000000000004</v>
+      </c>
+      <c r="W2">
+        <v>0.84462000000000004</v>
+      </c>
+      <c r="X2">
+        <v>0.82489999999999997</v>
+      </c>
+      <c r="Y2">
+        <v>0.85836999999999997</v>
+      </c>
+      <c r="Z2">
+        <v>0.84504999999999997</v>
+      </c>
+      <c r="AA2">
+        <v>0.86201000000000005</v>
+      </c>
+      <c r="AB2">
+        <v>0.82659000000000005</v>
+      </c>
+      <c r="AC2">
+        <v>0.85580999999999996</v>
+      </c>
+      <c r="AD2">
+        <v>0.82950999999999997</v>
+      </c>
+      <c r="AE2">
+        <v>0.83765999999999996</v>
+      </c>
+      <c r="AF2">
+        <v>0.85663999999999996</v>
+      </c>
+      <c r="AG2">
+        <v>0.85282000000000002</v>
+      </c>
+      <c r="AH2">
+        <v>0.84250999999999998</v>
+      </c>
+      <c r="AI2">
+        <v>0.82693000000000005</v>
+      </c>
+      <c r="AJ2">
+        <v>0.86107</v>
+      </c>
+      <c r="AK2">
+        <v>0.83531</v>
+      </c>
+      <c r="AL2">
+        <v>0.86816000000000004</v>
+      </c>
+      <c r="AM2">
+        <v>0.85392999999999997</v>
+      </c>
+      <c r="AN2">
+        <v>0.85941999999999996</v>
+      </c>
+      <c r="AO2">
+        <v>0.85770999999999997</v>
+      </c>
+      <c r="AP2">
+        <v>0.83352000000000004</v>
+      </c>
+      <c r="AQ2">
+        <v>0.84009999999999996</v>
+      </c>
+      <c r="AR2">
+        <v>0.83379000000000003</v>
+      </c>
+      <c r="AS2">
+        <v>0.86641000000000001</v>
+      </c>
+      <c r="AT2">
+        <v>0.85468</v>
+      </c>
+      <c r="AU2">
+        <v>0.83838000000000001</v>
+      </c>
+      <c r="AV2">
+        <v>0.84501000000000004</v>
+      </c>
+      <c r="AW2">
+        <v>0.8569</v>
+      </c>
+      <c r="AX2">
+        <v>0.83386000000000005</v>
+      </c>
+      <c r="AY2">
+        <v>0.85107999999999995</v>
+      </c>
+      <c r="AZ2">
+        <v>0.85868999999999995</v>
+      </c>
+      <c r="BA2">
+        <v>0.86024999999999996</v>
+      </c>
+      <c r="BB2">
+        <v>0.85263999999999995</v>
+      </c>
+      <c r="BC2">
+        <v>0.86168999999999996</v>
+      </c>
+      <c r="BD2">
+        <v>0.84460000000000002</v>
+      </c>
+      <c r="BE2">
+        <v>0.84050999999999998</v>
+      </c>
+      <c r="BF2">
+        <v>0.85631999999999997</v>
+      </c>
+      <c r="BG2">
+        <v>0.8649</v>
+      </c>
+      <c r="BH2">
+        <v>0.84172999999999998</v>
+      </c>
+      <c r="BI2">
+        <v>0.84333000000000002</v>
+      </c>
+      <c r="BJ2">
+        <v>0.84874000000000005</v>
+      </c>
+      <c r="BK2">
+        <v>0.85102999999999995</v>
+      </c>
+      <c r="BL2">
+        <v>0.86351999999999995</v>
+      </c>
+      <c r="BM2">
+        <v>0.85474000000000006</v>
+      </c>
+      <c r="BN2">
+        <v>0.86929000000000001</v>
+      </c>
+      <c r="BO2">
+        <v>0.83026</v>
+      </c>
+      <c r="BP2">
+        <v>0.87444999999999995</v>
+      </c>
+      <c r="BQ2">
+        <v>0.84992999999999996</v>
+      </c>
+      <c r="BR2">
+        <v>0.84548999999999996</v>
+      </c>
+      <c r="BS2">
+        <v>0.85052000000000005</v>
+      </c>
+      <c r="BT2">
+        <v>0.84438999999999997</v>
+      </c>
+      <c r="BU2">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="BV2">
+        <v>0.85363</v>
+      </c>
+      <c r="BW2">
+        <v>0.83523999999999998</v>
+      </c>
+      <c r="BX2">
+        <v>0.84001000000000003</v>
+      </c>
+      <c r="BY2">
+        <v>0.85213000000000005</v>
+      </c>
+      <c r="BZ2">
+        <v>0.83865000000000001</v>
+      </c>
+      <c r="CA2">
+        <v>0.82230999999999999</v>
+      </c>
+      <c r="CB2">
+        <v>0.84084000000000003</v>
+      </c>
+      <c r="CC2">
+        <v>0.87044999999999995</v>
+      </c>
+      <c r="CD2">
+        <v>0.84577000000000002</v>
+      </c>
+      <c r="CE2">
+        <v>0.85006999999999999</v>
+      </c>
+      <c r="CF2">
+        <v>0.84228999999999998</v>
+      </c>
+      <c r="CG2">
+        <v>0.86077999999999999</v>
+      </c>
+      <c r="CH2">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="CI2">
+        <v>0.85097999999999996</v>
+      </c>
+      <c r="CJ2">
+        <v>0.85172999999999999</v>
+      </c>
+      <c r="CK2">
+        <v>0.83631</v>
+      </c>
+      <c r="CL2">
+        <v>0.84574000000000005</v>
+      </c>
+      <c r="CM2">
+        <v>0.86141000000000001</v>
+      </c>
+      <c r="CN2">
+        <v>0.85677000000000003</v>
+      </c>
+      <c r="CO2">
+        <v>0.83731999999999995</v>
+      </c>
+      <c r="CP2">
+        <v>0.86021999999999998</v>
+      </c>
+      <c r="CQ2">
+        <v>0.86651</v>
+      </c>
+      <c r="CR2">
+        <v>0.83723999999999998</v>
+      </c>
+      <c r="CS2">
+        <v>0.84863</v>
+      </c>
+      <c r="CT2">
+        <v>0.82494000000000001</v>
+      </c>
+      <c r="CU2">
+        <v>0.84509000000000001</v>
+      </c>
+      <c r="CV2">
+        <v>0.87378</v>
+      </c>
+      <c r="CW2">
+        <v>0.8495371000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.85853000000000002</v>
+      </c>
+      <c r="B3">
+        <v>0.84945999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.84599000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.85801000000000005</v>
+      </c>
+      <c r="E3">
+        <v>0.82167000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="G3">
+        <v>0.85524</v>
+      </c>
+      <c r="H3">
+        <v>0.81659000000000004</v>
+      </c>
+      <c r="I3">
+        <v>0.82028000000000001</v>
+      </c>
+      <c r="J3">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="K3">
+        <v>0.85472000000000004</v>
+      </c>
+      <c r="L3">
+        <v>0.83</v>
+      </c>
+      <c r="M3">
+        <v>0.83875</v>
+      </c>
+      <c r="N3">
+        <v>0.84060000000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.85226000000000002</v>
+      </c>
+      <c r="P3">
+        <v>0.83621000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>0.85699000000000003</v>
+      </c>
+      <c r="R3">
+        <v>0.82477999999999996</v>
+      </c>
+      <c r="S3">
+        <v>0.83309</v>
+      </c>
+      <c r="T3">
+        <v>0.84467000000000003</v>
+      </c>
+      <c r="U3">
+        <v>0.82286999999999999</v>
+      </c>
+      <c r="V3">
+        <v>0.83430000000000004</v>
+      </c>
+      <c r="W3">
+        <v>0.85765000000000002</v>
+      </c>
+      <c r="X3">
+        <v>0.84523000000000004</v>
+      </c>
+      <c r="Y3">
+        <v>0.83858999999999995</v>
+      </c>
+      <c r="Z3">
+        <v>0.85099000000000002</v>
+      </c>
+      <c r="AA3">
+        <v>0.84755999999999998</v>
+      </c>
+      <c r="AB3">
+        <v>0.84672000000000003</v>
+      </c>
+      <c r="AC3">
+        <v>0.85536999999999996</v>
+      </c>
+      <c r="AD3">
+        <v>0.84945999999999999</v>
+      </c>
+      <c r="AE3">
+        <v>0.86426999999999998</v>
+      </c>
+      <c r="AF3">
+        <v>0.84679000000000004</v>
+      </c>
+      <c r="AG3">
+        <v>0.85385</v>
+      </c>
+      <c r="AH3">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="AI3">
+        <v>0.85482999999999998</v>
+      </c>
+      <c r="AJ3">
+        <v>0.79666000000000003</v>
+      </c>
+      <c r="AK3">
+        <v>0.85965000000000003</v>
+      </c>
+      <c r="AL3">
+        <v>0.84743000000000002</v>
+      </c>
+      <c r="AM3">
+        <v>0.85116000000000003</v>
+      </c>
+      <c r="AN3">
+        <v>0.83736999999999995</v>
+      </c>
+      <c r="AO3">
+        <v>0.83813000000000004</v>
+      </c>
+      <c r="AP3">
+        <v>0.87324999999999997</v>
+      </c>
+      <c r="AQ3">
+        <v>0.83723000000000003</v>
+      </c>
+      <c r="AR3">
+        <v>0.84086000000000005</v>
+      </c>
+      <c r="AS3">
+        <v>0.82715000000000005</v>
+      </c>
+      <c r="AT3">
+        <v>0.84411999999999998</v>
+      </c>
+      <c r="AU3">
+        <v>0.86404999999999998</v>
+      </c>
+      <c r="AV3">
+        <v>0.85270999999999997</v>
+      </c>
+      <c r="AW3">
+        <v>0.82482</v>
+      </c>
+      <c r="AX3">
+        <v>0.85192000000000001</v>
+      </c>
+      <c r="AY3">
+        <v>0.83613000000000004</v>
+      </c>
+      <c r="AZ3">
+        <v>0.86373</v>
+      </c>
+      <c r="BA3">
+        <v>0.83728000000000002</v>
+      </c>
+      <c r="BB3">
+        <v>0.84462000000000004</v>
+      </c>
+      <c r="BC3">
+        <v>0.86001000000000005</v>
+      </c>
+      <c r="BD3">
+        <v>0.82460999999999995</v>
+      </c>
+      <c r="BE3">
+        <v>0.82828999999999997</v>
+      </c>
+      <c r="BF3">
+        <v>0.84550999999999998</v>
+      </c>
+      <c r="BG3">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="BH3">
+        <v>0.85868</v>
+      </c>
+      <c r="BI3">
+        <v>0.83038999999999996</v>
+      </c>
+      <c r="BJ3">
+        <v>0.83121</v>
+      </c>
+      <c r="BK3">
+        <v>0.83543999999999996</v>
+      </c>
+      <c r="BL3">
+        <v>0.82508999999999999</v>
+      </c>
+      <c r="BM3">
+        <v>0.83348</v>
+      </c>
+      <c r="BN3">
+        <v>0.81847999999999999</v>
+      </c>
+      <c r="BO3">
+        <v>0.84952000000000005</v>
+      </c>
+      <c r="BP3">
+        <v>0.84926000000000001</v>
+      </c>
+      <c r="BQ3">
+        <v>0.85075999999999996</v>
+      </c>
+      <c r="BR3">
+        <v>0.84828000000000003</v>
+      </c>
+      <c r="BS3">
+        <v>0.82016999999999995</v>
+      </c>
+      <c r="BT3">
+        <v>0.86031000000000002</v>
+      </c>
+      <c r="BU3">
+        <v>0.84845999999999999</v>
+      </c>
+      <c r="BV3">
+        <v>0.84670000000000001</v>
+      </c>
+      <c r="BW3">
+        <v>0.85014000000000001</v>
+      </c>
+      <c r="BX3">
+        <v>0.83926999999999996</v>
+      </c>
+      <c r="BY3">
+        <v>0.83689000000000002</v>
+      </c>
+      <c r="BZ3">
+        <v>0.86165999999999998</v>
+      </c>
+      <c r="CA3">
+        <v>0.85326000000000002</v>
+      </c>
+      <c r="CB3">
+        <v>0.86267000000000005</v>
+      </c>
+      <c r="CC3">
+        <v>0.82730000000000004</v>
+      </c>
+      <c r="CD3">
+        <v>0.85785999999999996</v>
+      </c>
+      <c r="CE3">
+        <v>0.82811999999999997</v>
+      </c>
+      <c r="CF3">
+        <v>0.86504999999999999</v>
+      </c>
+      <c r="CG3">
+        <v>0.83420000000000005</v>
+      </c>
+      <c r="CH3">
+        <v>0.83623000000000003</v>
+      </c>
+      <c r="CI3">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="CJ3">
+        <v>0.85363</v>
+      </c>
+      <c r="CK3">
+        <v>0.84465000000000001</v>
+      </c>
+      <c r="CL3">
+        <v>0.80823999999999996</v>
+      </c>
+      <c r="CM3">
+        <v>0.83628999999999998</v>
+      </c>
+      <c r="CN3">
+        <v>0.83906999999999998</v>
+      </c>
+      <c r="CO3">
+        <v>0.84738000000000002</v>
+      </c>
+      <c r="CP3">
+        <v>0.83808000000000005</v>
+      </c>
+      <c r="CQ3">
+        <v>0.84901000000000004</v>
+      </c>
+      <c r="CR3">
+        <v>0.85877999999999999</v>
+      </c>
+      <c r="CS3">
+        <v>0.85514000000000001</v>
+      </c>
+      <c r="CT3">
+        <v>0.82625999999999999</v>
+      </c>
+      <c r="CU3">
+        <v>0.82523999999999997</v>
+      </c>
+      <c r="CV3">
+        <v>0.85097</v>
+      </c>
+      <c r="CW3">
+        <v>0.84292330000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.86587999999999998</v>
+      </c>
+      <c r="B4">
+        <v>0.85289999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.83657000000000004</v>
+      </c>
+      <c r="D4">
+        <v>0.84162999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.83213999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.83265999999999996</v>
+      </c>
+      <c r="G4">
+        <v>0.82335999999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.83235000000000003</v>
+      </c>
+      <c r="I4">
+        <v>0.83692999999999995</v>
+      </c>
+      <c r="J4">
+        <v>0.82574000000000003</v>
+      </c>
+      <c r="K4">
+        <v>0.83037000000000005</v>
+      </c>
+      <c r="L4">
+        <v>0.83831</v>
+      </c>
+      <c r="M4">
+        <v>0.84633999999999998</v>
+      </c>
+      <c r="N4">
+        <v>0.83684999999999998</v>
+      </c>
+      <c r="O4">
+        <v>0.86482999999999999</v>
+      </c>
+      <c r="P4">
+        <v>0.84501999999999999</v>
+      </c>
+      <c r="Q4">
+        <v>0.85763</v>
+      </c>
+      <c r="R4">
+        <v>0.84746999999999995</v>
+      </c>
+      <c r="S4">
+        <v>0.84492</v>
+      </c>
+      <c r="T4">
+        <v>0.85736999999999997</v>
+      </c>
+      <c r="U4">
+        <v>0.83428000000000002</v>
+      </c>
+      <c r="V4">
+        <v>0.83609999999999995</v>
+      </c>
+      <c r="W4">
+        <v>0.86990000000000001</v>
+      </c>
+      <c r="X4">
+        <v>0.85111000000000003</v>
+      </c>
+      <c r="Y4">
+        <v>0.81693000000000005</v>
+      </c>
+      <c r="Z4">
+        <v>0.84421999999999997</v>
+      </c>
+      <c r="AA4">
+        <v>0.83838999999999997</v>
+      </c>
+      <c r="AB4">
+        <v>0.82403000000000004</v>
+      </c>
+      <c r="AC4">
+        <v>0.86094000000000004</v>
+      </c>
+      <c r="AD4">
+        <v>0.83233000000000001</v>
+      </c>
+      <c r="AE4">
+        <v>0.85587000000000002</v>
+      </c>
+      <c r="AF4">
+        <v>0.83316000000000001</v>
+      </c>
+      <c r="AG4">
+        <v>0.86151999999999995</v>
+      </c>
+      <c r="AH4">
+        <v>0.84048999999999996</v>
+      </c>
+      <c r="AI4">
+        <v>0.85236999999999996</v>
+      </c>
+      <c r="AJ4">
+        <v>0.82850999999999997</v>
+      </c>
+      <c r="AK4">
+        <v>0.84340999999999999</v>
+      </c>
+      <c r="AL4">
+        <v>0.85365999999999997</v>
+      </c>
+      <c r="AM4">
+        <v>0.85075000000000001</v>
+      </c>
+      <c r="AN4">
+        <v>0.83913000000000004</v>
+      </c>
+      <c r="AO4">
+        <v>0.83143</v>
+      </c>
+      <c r="AP4">
+        <v>0.84585999999999995</v>
+      </c>
+      <c r="AQ4">
+        <v>0.84462999999999999</v>
+      </c>
+      <c r="AR4">
+        <v>0.86792999999999998</v>
+      </c>
+      <c r="AS4">
+        <v>0.84996000000000005</v>
+      </c>
+      <c r="AT4">
+        <v>0.84550999999999998</v>
+      </c>
+      <c r="AU4">
+        <v>0.81538999999999995</v>
+      </c>
+      <c r="AV4">
+        <v>0.84594000000000003</v>
+      </c>
+      <c r="AW4">
+        <v>0.84228999999999998</v>
+      </c>
+      <c r="AX4">
+        <v>0.82674999999999998</v>
+      </c>
+      <c r="AY4">
+        <v>0.83606999999999998</v>
+      </c>
+      <c r="AZ4">
+        <v>0.85724999999999996</v>
+      </c>
+      <c r="BA4">
+        <v>0.83440000000000003</v>
+      </c>
+      <c r="BB4">
+        <v>0.84277999999999997</v>
+      </c>
+      <c r="BC4">
+        <v>0.87158999999999998</v>
+      </c>
+      <c r="BD4">
+        <v>0.82020999999999999</v>
+      </c>
+      <c r="BE4">
+        <v>0.85224999999999995</v>
+      </c>
+      <c r="BF4">
+        <v>0.80959000000000003</v>
+      </c>
+      <c r="BG4">
+        <v>0.85696000000000006</v>
+      </c>
+      <c r="BH4">
+        <v>0.84589000000000003</v>
+      </c>
+      <c r="BI4">
+        <v>0.84424999999999994</v>
+      </c>
+      <c r="BJ4">
+        <v>0.83670999999999995</v>
+      </c>
+      <c r="BK4">
+        <v>0.8619</v>
+      </c>
+      <c r="BL4">
+        <v>0.84304999999999997</v>
+      </c>
+      <c r="BM4">
+        <v>0.82523000000000002</v>
+      </c>
+      <c r="BN4">
+        <v>0.80976000000000004</v>
+      </c>
+      <c r="BO4">
+        <v>0.85811000000000004</v>
+      </c>
+      <c r="BP4">
+        <v>0.85909000000000002</v>
+      </c>
+      <c r="BQ4">
+        <v>0.83042000000000005</v>
+      </c>
+      <c r="BR4">
+        <v>0.82294999999999996</v>
+      </c>
+      <c r="BS4">
+        <v>0.84162999999999999</v>
+      </c>
+      <c r="BT4">
+        <v>0.82872000000000001</v>
+      </c>
+      <c r="BU4">
+        <v>0.85267000000000004</v>
+      </c>
+      <c r="BV4">
+        <v>0.80930999999999997</v>
+      </c>
+      <c r="BW4">
+        <v>0.83994999999999997</v>
+      </c>
+      <c r="BX4">
+        <v>0.84175999999999995</v>
+      </c>
+      <c r="BY4">
+        <v>0.84674000000000005</v>
+      </c>
+      <c r="BZ4">
+        <v>0.86484000000000005</v>
+      </c>
+      <c r="CA4">
+        <v>0.85190999999999995</v>
+      </c>
+      <c r="CB4">
         <v>0.83189999999999997</v>
       </c>
-      <c r="C1">
-        <v>0.84465499999999993</v>
+      <c r="CC4">
+        <v>0.85082999999999998</v>
+      </c>
+      <c r="CD4">
+        <v>0.82404999999999995</v>
+      </c>
+      <c r="CE4">
+        <v>0.86655000000000004</v>
+      </c>
+      <c r="CF4">
+        <v>0.84377000000000002</v>
+      </c>
+      <c r="CG4">
+        <v>0.81886999999999999</v>
+      </c>
+      <c r="CH4">
+        <v>0.85092999999999996</v>
+      </c>
+      <c r="CI4">
+        <v>0.84031999999999996</v>
+      </c>
+      <c r="CJ4">
+        <v>0.84023999999999999</v>
+      </c>
+      <c r="CK4">
+        <v>0.85438999999999998</v>
+      </c>
+      <c r="CL4">
+        <v>0.84408000000000005</v>
+      </c>
+      <c r="CM4">
+        <v>0.85335000000000005</v>
+      </c>
+      <c r="CN4">
+        <v>0.86211000000000004</v>
+      </c>
+      <c r="CO4">
+        <v>0.86853000000000002</v>
+      </c>
+      <c r="CP4">
+        <v>0.85463</v>
+      </c>
+      <c r="CQ4">
+        <v>0.85490999999999995</v>
+      </c>
+      <c r="CR4">
+        <v>0.86314999999999997</v>
+      </c>
+      <c r="CS4">
+        <v>0.82340000000000002</v>
+      </c>
+      <c r="CT4">
+        <v>0.83225000000000005</v>
+      </c>
+      <c r="CU4">
+        <v>0.85379000000000005</v>
+      </c>
+      <c r="CV4">
+        <v>0.83553999999999995</v>
+      </c>
+      <c r="CW4">
+        <v>0.84295640000000049</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.86128000000000005</v>
-      </c>
-      <c r="B2">
-        <v>0.84921999999999997</v>
-      </c>
-      <c r="C2">
-        <v>0.85525000000000007</v>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.84526999999999997</v>
+      </c>
+      <c r="B5">
+        <v>0.85116000000000003</v>
+      </c>
+      <c r="C5">
+        <v>0.83148</v>
+      </c>
+      <c r="D5">
+        <v>0.83140000000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.81901000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.82674999999999998</v>
+      </c>
+      <c r="G5">
+        <v>0.86368</v>
+      </c>
+      <c r="H5">
+        <v>0.84362000000000004</v>
+      </c>
+      <c r="I5">
+        <v>0.86582000000000003</v>
+      </c>
+      <c r="J5">
+        <v>0.81206</v>
+      </c>
+      <c r="K5">
+        <v>0.84011999999999998</v>
+      </c>
+      <c r="L5">
+        <v>0.82938999999999996</v>
+      </c>
+      <c r="M5">
+        <v>0.82052000000000003</v>
+      </c>
+      <c r="N5">
+        <v>0.85180999999999996</v>
+      </c>
+      <c r="O5">
+        <v>0.81257000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.81964000000000004</v>
+      </c>
+      <c r="Q5">
+        <v>0.83786000000000005</v>
+      </c>
+      <c r="R5">
+        <v>0.83684000000000003</v>
+      </c>
+      <c r="S5">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="T5">
+        <v>0.84416999999999998</v>
+      </c>
+      <c r="U5">
+        <v>0.83169999999999999</v>
+      </c>
+      <c r="V5">
+        <v>0.83647000000000005</v>
+      </c>
+      <c r="W5">
+        <v>0.85692000000000002</v>
+      </c>
+      <c r="X5">
+        <v>0.83684999999999998</v>
+      </c>
+      <c r="Y5">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="Z5">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="AA5">
+        <v>0.83960999999999997</v>
+      </c>
+      <c r="AB5">
+        <v>0.84814000000000001</v>
+      </c>
+      <c r="AC5">
+        <v>0.85126000000000002</v>
+      </c>
+      <c r="AD5">
+        <v>0.84660000000000002</v>
+      </c>
+      <c r="AE5">
+        <v>0.83186000000000004</v>
+      </c>
+      <c r="AF5">
+        <v>0.83662000000000003</v>
+      </c>
+      <c r="AG5">
+        <v>0.82282</v>
+      </c>
+      <c r="AH5">
+        <v>0.82943</v>
+      </c>
+      <c r="AI5">
+        <v>0.82343999999999995</v>
+      </c>
+      <c r="AJ5">
+        <v>0.83091999999999999</v>
+      </c>
+      <c r="AK5">
+        <v>0.83943999999999996</v>
+      </c>
+      <c r="AL5">
+        <v>0.85082000000000002</v>
+      </c>
+      <c r="AM5">
+        <v>0.83289000000000002</v>
+      </c>
+      <c r="AN5">
+        <v>0.81281999999999999</v>
+      </c>
+      <c r="AO5">
+        <v>0.84469000000000005</v>
+      </c>
+      <c r="AP5">
+        <v>0.8266</v>
+      </c>
+      <c r="AQ5">
+        <v>0.84521999999999997</v>
+      </c>
+      <c r="AR5">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="AS5">
+        <v>0.84236</v>
+      </c>
+      <c r="AT5">
+        <v>0.84509000000000001</v>
+      </c>
+      <c r="AU5">
+        <v>0.86226000000000003</v>
+      </c>
+      <c r="AV5">
+        <v>0.86334</v>
+      </c>
+      <c r="AW5">
+        <v>0.83320000000000005</v>
+      </c>
+      <c r="AX5">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="AY5">
+        <v>0.83564000000000005</v>
+      </c>
+      <c r="AZ5">
+        <v>0.84296000000000004</v>
+      </c>
+      <c r="BA5">
+        <v>0.84296000000000004</v>
+      </c>
+      <c r="BB5">
+        <v>0.83362000000000003</v>
+      </c>
+      <c r="BC5">
+        <v>0.81538999999999995</v>
+      </c>
+      <c r="BD5">
+        <v>0.83367000000000002</v>
+      </c>
+      <c r="BE5">
+        <v>0.81757999999999997</v>
+      </c>
+      <c r="BF5">
+        <v>0.84106999999999998</v>
+      </c>
+      <c r="BG5">
+        <v>0.85145000000000004</v>
+      </c>
+      <c r="BH5">
+        <v>0.83423999999999998</v>
+      </c>
+      <c r="BI5">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="BJ5">
+        <v>0.81918000000000002</v>
+      </c>
+      <c r="BK5">
+        <v>0.84950999999999999</v>
+      </c>
+      <c r="BL5">
+        <v>0.84919</v>
+      </c>
+      <c r="BM5">
+        <v>0.82623000000000002</v>
+      </c>
+      <c r="BN5">
+        <v>0.82613999999999999</v>
+      </c>
+      <c r="BO5">
+        <v>0.83701999999999999</v>
+      </c>
+      <c r="BP5">
+        <v>0.84372999999999998</v>
+      </c>
+      <c r="BQ5">
+        <v>0.86092999999999997</v>
+      </c>
+      <c r="BR5">
+        <v>0.84050999999999998</v>
+      </c>
+      <c r="BS5">
+        <v>0.81767000000000001</v>
+      </c>
+      <c r="BT5">
+        <v>0.84826000000000001</v>
+      </c>
+      <c r="BU5">
+        <v>0.81162000000000001</v>
+      </c>
+      <c r="BV5">
+        <v>0.82469999999999999</v>
+      </c>
+      <c r="BW5">
+        <v>0.83703000000000005</v>
+      </c>
+      <c r="BX5">
+        <v>0.83464000000000005</v>
+      </c>
+      <c r="BY5">
+        <v>0.84419</v>
+      </c>
+      <c r="BZ5">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="CA5">
+        <v>0.81544000000000005</v>
+      </c>
+      <c r="CB5">
+        <v>0.84455000000000002</v>
+      </c>
+      <c r="CC5">
+        <v>0.84496000000000004</v>
+      </c>
+      <c r="CD5">
+        <v>0.82872999999999997</v>
+      </c>
+      <c r="CE5">
+        <v>0.83560000000000001</v>
+      </c>
+      <c r="CF5">
+        <v>0.84055000000000002</v>
+      </c>
+      <c r="CG5">
+        <v>0.83447000000000005</v>
+      </c>
+      <c r="CH5">
+        <v>0.84308000000000005</v>
+      </c>
+      <c r="CI5">
+        <v>0.83208000000000004</v>
+      </c>
+      <c r="CJ5">
+        <v>0.82815000000000005</v>
+      </c>
+      <c r="CK5">
+        <v>0.83670999999999995</v>
+      </c>
+      <c r="CL5">
+        <v>0.81396999999999997</v>
+      </c>
+      <c r="CM5">
+        <v>0.82462999999999997</v>
+      </c>
+      <c r="CN5">
+        <v>0.82404999999999995</v>
+      </c>
+      <c r="CO5">
+        <v>0.84223999999999999</v>
+      </c>
+      <c r="CP5">
+        <v>0.82057000000000002</v>
+      </c>
+      <c r="CQ5">
+        <v>0.83658999999999994</v>
+      </c>
+      <c r="CR5">
+        <v>0.82784000000000002</v>
+      </c>
+      <c r="CS5">
+        <v>0.83445000000000003</v>
+      </c>
+      <c r="CT5">
+        <v>0.84821999999999997</v>
+      </c>
+      <c r="CU5">
+        <v>0.83323000000000003</v>
+      </c>
+      <c r="CV5">
+        <v>0.82025999999999999</v>
+      </c>
+      <c r="CW5">
+        <v>0.8362238999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.83806999999999998</v>
-      </c>
-      <c r="B3">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.84274000000000004</v>
+      </c>
+      <c r="B6">
+        <v>0.83926000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.84894999999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.81667999999999996</v>
+      </c>
+      <c r="E6">
+        <v>0.84631000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.85282000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.83043999999999996</v>
+      </c>
+      <c r="H6">
+        <v>0.83496000000000004</v>
+      </c>
+      <c r="I6">
+        <v>0.84321000000000002</v>
+      </c>
+      <c r="J6">
+        <v>0.84365999999999997</v>
+      </c>
+      <c r="K6">
+        <v>0.84567999999999999</v>
+      </c>
+      <c r="L6">
+        <v>0.81794999999999995</v>
+      </c>
+      <c r="M6">
+        <v>0.80008000000000001</v>
+      </c>
+      <c r="N6">
+        <v>0.8387</v>
+      </c>
+      <c r="O6">
+        <v>0.84736</v>
+      </c>
+      <c r="P6">
+        <v>0.83604000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.83023000000000002</v>
+      </c>
+      <c r="R6">
+        <v>0.83928999999999998</v>
+      </c>
+      <c r="S6">
+        <v>0.84584000000000004</v>
+      </c>
+      <c r="T6">
+        <v>0.85443000000000002</v>
+      </c>
+      <c r="U6">
+        <v>0.84577000000000002</v>
+      </c>
+      <c r="V6">
+        <v>0.83369000000000004</v>
+      </c>
+      <c r="W6">
+        <v>0.84794999999999998</v>
+      </c>
+      <c r="X6">
+        <v>0.84906999999999999</v>
+      </c>
+      <c r="Y6">
+        <v>0.81827000000000005</v>
+      </c>
+      <c r="Z6">
+        <v>0.84797</v>
+      </c>
+      <c r="AA6">
+        <v>0.83557000000000003</v>
+      </c>
+      <c r="AB6">
+        <v>0.84035000000000004</v>
+      </c>
+      <c r="AC6">
+        <v>0.83750999999999998</v>
+      </c>
+      <c r="AD6">
+        <v>0.84065999999999996</v>
+      </c>
+      <c r="AE6">
+        <v>0.84743000000000002</v>
+      </c>
+      <c r="AF6">
+        <v>0.84082999999999997</v>
+      </c>
+      <c r="AG6">
+        <v>0.83052999999999999</v>
+      </c>
+      <c r="AH6">
+        <v>0.80671999999999999</v>
+      </c>
+      <c r="AI6">
+        <v>0.84392</v>
+      </c>
+      <c r="AJ6">
+        <v>0.80989999999999995</v>
+      </c>
+      <c r="AK6">
+        <v>0.84219999999999995</v>
+      </c>
+      <c r="AL6">
+        <v>0.83697999999999995</v>
+      </c>
+      <c r="AM6">
+        <v>0.83848999999999996</v>
+      </c>
+      <c r="AN6">
+        <v>0.81830999999999998</v>
+      </c>
+      <c r="AO6">
+        <v>0.83752000000000004</v>
+      </c>
+      <c r="AP6">
+        <v>0.83155999999999997</v>
+      </c>
+      <c r="AQ6">
+        <v>0.82969000000000004</v>
+      </c>
+      <c r="AR6">
+        <v>0.84699000000000002</v>
+      </c>
+      <c r="AS6">
+        <v>0.82654000000000005</v>
+      </c>
+      <c r="AT6">
+        <v>0.83018999999999998</v>
+      </c>
+      <c r="AU6">
+        <v>0.82218999999999998</v>
+      </c>
+      <c r="AV6">
+        <v>0.84696000000000005</v>
+      </c>
+      <c r="AW6">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="AX6">
+        <v>0.84694999999999998</v>
+      </c>
+      <c r="AY6">
+        <v>0.85314999999999996</v>
+      </c>
+      <c r="AZ6">
+        <v>0.84267000000000003</v>
+      </c>
+      <c r="BA6">
+        <v>0.85053000000000001</v>
+      </c>
+      <c r="BB6">
+        <v>0.81991000000000003</v>
+      </c>
+      <c r="BC6">
+        <v>0.84804000000000002</v>
+      </c>
+      <c r="BD6">
+        <v>0.84414999999999996</v>
+      </c>
+      <c r="BE6">
+        <v>0.81840000000000002</v>
+      </c>
+      <c r="BF6">
+        <v>0.84809000000000001</v>
+      </c>
+      <c r="BG6">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="BH6">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="BI6">
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="BJ6">
+        <v>0.84284000000000003</v>
+      </c>
+      <c r="BK6">
+        <v>0.83694000000000002</v>
+      </c>
+      <c r="BL6">
+        <v>0.81286999999999998</v>
+      </c>
+      <c r="BM6">
+        <v>0.84904000000000002</v>
+      </c>
+      <c r="BN6">
+        <v>0.84172999999999998</v>
+      </c>
+      <c r="BO6">
+        <v>0.84794999999999998</v>
+      </c>
+      <c r="BP6">
+        <v>0.80176999999999998</v>
+      </c>
+      <c r="BQ6">
+        <v>0.84189000000000003</v>
+      </c>
+      <c r="BR6">
+        <v>0.83984000000000003</v>
+      </c>
+      <c r="BS6">
+        <v>0.82676000000000005</v>
+      </c>
+      <c r="BT6">
+        <v>0.85862000000000005</v>
+      </c>
+      <c r="BU6">
+        <v>0.82565</v>
+      </c>
+      <c r="BV6">
+        <v>0.83165</v>
+      </c>
+      <c r="BW6">
+        <v>0.84792999999999996</v>
+      </c>
+      <c r="BX6">
+        <v>0.82520000000000004</v>
+      </c>
+      <c r="BY6">
+        <v>0.82352000000000003</v>
+      </c>
+      <c r="BZ6">
+        <v>0.85401000000000005</v>
+      </c>
+      <c r="CA6">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="CB6">
+        <v>0.85009999999999997</v>
+      </c>
+      <c r="CC6">
+        <v>0.82976000000000005</v>
+      </c>
+      <c r="CD6">
+        <v>0.83079000000000003</v>
+      </c>
+      <c r="CE6">
+        <v>0.82659000000000005</v>
+      </c>
+      <c r="CF6">
+        <v>0.80208999999999997</v>
+      </c>
+      <c r="CG6">
+        <v>0.84106999999999998</v>
+      </c>
+      <c r="CH6">
+        <v>0.83833999999999997</v>
+      </c>
+      <c r="CI6">
+        <v>0.84582999999999997</v>
+      </c>
+      <c r="CJ6">
+        <v>0.82926999999999995</v>
+      </c>
+      <c r="CK6">
+        <v>0.83272000000000002</v>
+      </c>
+      <c r="CL6">
+        <v>0.83077000000000001</v>
+      </c>
+      <c r="CM6">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="CN6">
+        <v>0.83701999999999999</v>
+      </c>
+      <c r="CO6">
+        <v>0.83875</v>
+      </c>
+      <c r="CP6">
+        <v>0.83716000000000002</v>
+      </c>
+      <c r="CQ6">
+        <v>0.83818999999999999</v>
+      </c>
+      <c r="CR6">
+        <v>0.85526000000000002</v>
+      </c>
+      <c r="CS6">
+        <v>0.80754000000000004</v>
+      </c>
+      <c r="CT6">
+        <v>0.84645000000000004</v>
+      </c>
+      <c r="CU6">
+        <v>0.84363999999999995</v>
+      </c>
+      <c r="CV6">
+        <v>0.82462000000000002</v>
+      </c>
+      <c r="CW6">
+        <v>0.83677949999999979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.80974999999999997</v>
+      </c>
+      <c r="B7">
+        <v>0.84221999999999997</v>
+      </c>
+      <c r="C7">
+        <v>0.82457999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.83845999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.84713000000000005</v>
+      </c>
+      <c r="F7">
+        <v>0.80357999999999996</v>
+      </c>
+      <c r="G7">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.8337</v>
+      </c>
+      <c r="I7">
+        <v>0.83882000000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.83035999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.81364999999999998</v>
+      </c>
+      <c r="L7">
+        <v>0.85094999999999998</v>
+      </c>
+      <c r="M7">
+        <v>0.81874000000000002</v>
+      </c>
+      <c r="N7">
+        <v>0.83248</v>
+      </c>
+      <c r="O7">
         <v>0.8468</v>
       </c>
-      <c r="C3">
-        <v>0.84243500000000004</v>
+      <c r="P7">
+        <v>0.84033000000000002</v>
+      </c>
+      <c r="Q7">
+        <v>0.82250999999999996</v>
+      </c>
+      <c r="R7">
+        <v>0.84333000000000002</v>
+      </c>
+      <c r="S7">
+        <v>0.81208000000000002</v>
+      </c>
+      <c r="T7">
+        <v>0.82269999999999999</v>
+      </c>
+      <c r="U7">
+        <v>0.81122000000000005</v>
+      </c>
+      <c r="V7">
+        <v>0.81991999999999998</v>
+      </c>
+      <c r="W7">
+        <v>0.83079999999999998</v>
+      </c>
+      <c r="X7">
+        <v>0.82774999999999999</v>
+      </c>
+      <c r="Y7">
+        <v>0.80710999999999999</v>
+      </c>
+      <c r="Z7">
+        <v>0.83496999999999999</v>
+      </c>
+      <c r="AA7">
+        <v>0.81452999999999998</v>
+      </c>
+      <c r="AB7">
+        <v>0.8417</v>
+      </c>
+      <c r="AC7">
+        <v>0.82094</v>
+      </c>
+      <c r="AD7">
+        <v>0.84497999999999995</v>
+      </c>
+      <c r="AE7">
+        <v>0.86804999999999999</v>
+      </c>
+      <c r="AF7">
+        <v>0.83165999999999995</v>
+      </c>
+      <c r="AG7">
+        <v>0.81513000000000002</v>
+      </c>
+      <c r="AH7">
+        <v>0.84038999999999997</v>
+      </c>
+      <c r="AI7">
+        <v>0.82628000000000001</v>
+      </c>
+      <c r="AJ7">
+        <v>0.84228000000000003</v>
+      </c>
+      <c r="AK7">
+        <v>0.83603000000000005</v>
+      </c>
+      <c r="AL7">
+        <v>0.84201999999999999</v>
+      </c>
+      <c r="AM7">
+        <v>0.84631999999999996</v>
+      </c>
+      <c r="AN7">
+        <v>0.81411999999999995</v>
+      </c>
+      <c r="AO7">
+        <v>0.81808000000000003</v>
+      </c>
+      <c r="AP7">
+        <v>0.82864000000000004</v>
+      </c>
+      <c r="AQ7">
+        <v>0.83491000000000004</v>
+      </c>
+      <c r="AR7">
+        <v>0.80413000000000001</v>
+      </c>
+      <c r="AS7">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="AT7">
+        <v>0.82135999999999998</v>
+      </c>
+      <c r="AU7">
+        <v>0.84245000000000003</v>
+      </c>
+      <c r="AV7">
+        <v>0.84701000000000004</v>
+      </c>
+      <c r="AW7">
+        <v>0.81899</v>
+      </c>
+      <c r="AX7">
+        <v>0.8468</v>
+      </c>
+      <c r="AY7">
+        <v>0.82355</v>
+      </c>
+      <c r="AZ7">
+        <v>0.84755000000000003</v>
+      </c>
+      <c r="BA7">
+        <v>0.83852000000000004</v>
+      </c>
+      <c r="BB7">
+        <v>0.84248999999999996</v>
+      </c>
+      <c r="BC7">
+        <v>0.84001999999999999</v>
+      </c>
+      <c r="BD7">
+        <v>0.81860999999999995</v>
+      </c>
+      <c r="BE7">
+        <v>0.81981999999999999</v>
+      </c>
+      <c r="BF7">
+        <v>0.83337000000000006</v>
+      </c>
+      <c r="BG7">
+        <v>0.81074999999999997</v>
+      </c>
+      <c r="BH7">
+        <v>0.82054000000000005</v>
+      </c>
+      <c r="BI7">
+        <v>0.84031</v>
+      </c>
+      <c r="BJ7">
+        <v>0.81760999999999995</v>
+      </c>
+      <c r="BK7">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="BL7">
+        <v>0.83694000000000002</v>
+      </c>
+      <c r="BM7">
+        <v>0.83062999999999998</v>
+      </c>
+      <c r="BN7">
+        <v>0.83045000000000002</v>
+      </c>
+      <c r="BO7">
+        <v>0.83331999999999995</v>
+      </c>
+      <c r="BP7">
+        <v>0.79464000000000001</v>
+      </c>
+      <c r="BQ7">
+        <v>0.83116000000000001</v>
+      </c>
+      <c r="BR7">
+        <v>0.85697000000000001</v>
+      </c>
+      <c r="BS7">
+        <v>0.84680999999999995</v>
+      </c>
+      <c r="BT7">
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="BU7">
+        <v>0.80047999999999997</v>
+      </c>
+      <c r="BV7">
+        <v>0.83450000000000002</v>
+      </c>
+      <c r="BW7">
+        <v>0.81444000000000005</v>
+      </c>
+      <c r="BX7">
+        <v>0.81498000000000004</v>
+      </c>
+      <c r="BY7">
+        <v>0.83757000000000004</v>
+      </c>
+      <c r="BZ7">
+        <v>0.84679000000000004</v>
+      </c>
+      <c r="CA7">
+        <v>0.82513999999999998</v>
+      </c>
+      <c r="CB7">
+        <v>0.84772999999999998</v>
+      </c>
+      <c r="CC7">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="CD7">
+        <v>0.84026000000000001</v>
+      </c>
+      <c r="CE7">
+        <v>0.84487000000000001</v>
+      </c>
+      <c r="CF7">
+        <v>0.80737999999999999</v>
+      </c>
+      <c r="CG7">
+        <v>0.86104000000000003</v>
+      </c>
+      <c r="CH7">
+        <v>0.82667000000000002</v>
+      </c>
+      <c r="CI7">
+        <v>0.85726000000000002</v>
+      </c>
+      <c r="CJ7">
+        <v>0.82179000000000002</v>
+      </c>
+      <c r="CK7">
+        <v>0.83835000000000004</v>
+      </c>
+      <c r="CL7">
+        <v>0.84713000000000005</v>
+      </c>
+      <c r="CM7">
+        <v>0.82938999999999996</v>
+      </c>
+      <c r="CN7">
+        <v>0.83157999999999999</v>
+      </c>
+      <c r="CO7">
+        <v>0.82501999999999998</v>
+      </c>
+      <c r="CP7">
+        <v>0.84711999999999998</v>
+      </c>
+      <c r="CQ7">
+        <v>0.81389</v>
+      </c>
+      <c r="CR7">
+        <v>0.83211000000000002</v>
+      </c>
+      <c r="CS7">
+        <v>0.83836999999999995</v>
+      </c>
+      <c r="CT7">
+        <v>0.82167999999999997</v>
+      </c>
+      <c r="CU7">
+        <v>0.82193000000000005</v>
+      </c>
+      <c r="CV7">
+        <v>0.82445000000000002</v>
+      </c>
+      <c r="CW7">
+        <v>0.83085520000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.80401</v>
-      </c>
-      <c r="B4">
-        <v>0.86426999999999998</v>
-      </c>
-      <c r="C4">
-        <v>0.83413999999999999</v>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.83138999999999996</v>
+      </c>
+      <c r="B8">
+        <v>0.81444000000000005</v>
+      </c>
+      <c r="C8">
+        <v>0.82767999999999997</v>
+      </c>
+      <c r="D8">
+        <v>0.84272000000000002</v>
+      </c>
+      <c r="E8">
+        <v>0.83243</v>
+      </c>
+      <c r="F8">
+        <v>0.82615000000000005</v>
+      </c>
+      <c r="G8">
+        <v>0.80789</v>
+      </c>
+      <c r="H8">
+        <v>0.82584999999999997</v>
+      </c>
+      <c r="I8">
+        <v>0.82</v>
+      </c>
+      <c r="J8">
+        <v>0.82116</v>
+      </c>
+      <c r="K8">
+        <v>0.83177999999999996</v>
+      </c>
+      <c r="L8">
+        <v>0.83009999999999995</v>
+      </c>
+      <c r="M8">
+        <v>0.83845999999999998</v>
+      </c>
+      <c r="N8">
+        <v>0.83094999999999997</v>
+      </c>
+      <c r="O8">
+        <v>0.82745999999999997</v>
+      </c>
+      <c r="P8">
+        <v>0.82001999999999997</v>
+      </c>
+      <c r="Q8">
+        <v>0.82542000000000004</v>
+      </c>
+      <c r="R8">
+        <v>0.79823999999999995</v>
+      </c>
+      <c r="S8">
+        <v>0.80454000000000003</v>
+      </c>
+      <c r="T8">
+        <v>0.82728999999999997</v>
+      </c>
+      <c r="U8">
+        <v>0.83096999999999999</v>
+      </c>
+      <c r="V8">
+        <v>0.85219</v>
+      </c>
+      <c r="W8">
+        <v>0.85472000000000004</v>
+      </c>
+      <c r="X8">
+        <v>0.82572999999999996</v>
+      </c>
+      <c r="Y8">
+        <v>0.84343999999999997</v>
+      </c>
+      <c r="Z8">
+        <v>0.81549000000000005</v>
+      </c>
+      <c r="AA8">
+        <v>0.80940000000000001</v>
+      </c>
+      <c r="AB8">
+        <v>0.83006000000000002</v>
+      </c>
+      <c r="AC8">
+        <v>0.82642000000000004</v>
+      </c>
+      <c r="AD8">
+        <v>0.81601000000000001</v>
+      </c>
+      <c r="AE8">
+        <v>0.85143000000000002</v>
+      </c>
+      <c r="AF8">
+        <v>0.82650999999999997</v>
+      </c>
+      <c r="AG8">
+        <v>0.80037000000000003</v>
+      </c>
+      <c r="AH8">
+        <v>0.81742000000000004</v>
+      </c>
+      <c r="AI8">
+        <v>0.83208000000000004</v>
+      </c>
+      <c r="AJ8">
+        <v>0.82679999999999998</v>
+      </c>
+      <c r="AK8">
+        <v>0.82025000000000003</v>
+      </c>
+      <c r="AL8">
+        <v>0.83023999999999998</v>
+      </c>
+      <c r="AM8">
+        <v>0.82081999999999999</v>
+      </c>
+      <c r="AN8">
+        <v>0.80303000000000002</v>
+      </c>
+      <c r="AO8">
+        <v>0.83248</v>
+      </c>
+      <c r="AP8">
+        <v>0.83682999999999996</v>
+      </c>
+      <c r="AQ8">
+        <v>0.81316999999999995</v>
+      </c>
+      <c r="AR8">
+        <v>0.83098000000000005</v>
+      </c>
+      <c r="AS8">
+        <v>0.83911000000000002</v>
+      </c>
+      <c r="AT8">
+        <v>0.83877999999999997</v>
+      </c>
+      <c r="AU8">
+        <v>0.84899000000000002</v>
+      </c>
+      <c r="AV8">
+        <v>0.81972999999999996</v>
+      </c>
+      <c r="AW8">
+        <v>0.83065</v>
+      </c>
+      <c r="AX8">
+        <v>0.8286</v>
+      </c>
+      <c r="AY8">
+        <v>0.83279999999999998</v>
+      </c>
+      <c r="AZ8">
+        <v>0.80257000000000001</v>
+      </c>
+      <c r="BA8">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="BB8">
+        <v>0.82077</v>
+      </c>
+      <c r="BC8">
+        <v>0.81460999999999995</v>
+      </c>
+      <c r="BD8">
+        <v>0.84299000000000002</v>
+      </c>
+      <c r="BE8">
+        <v>0.79957999999999996</v>
+      </c>
+      <c r="BF8">
+        <v>0.83904000000000001</v>
+      </c>
+      <c r="BG8">
+        <v>0.82140999999999997</v>
+      </c>
+      <c r="BH8">
+        <v>0.81611999999999996</v>
+      </c>
+      <c r="BI8">
+        <v>0.81086999999999998</v>
+      </c>
+      <c r="BJ8">
+        <v>0.81869000000000003</v>
+      </c>
+      <c r="BK8">
+        <v>0.82604999999999995</v>
+      </c>
+      <c r="BL8">
+        <v>0.82121999999999995</v>
+      </c>
+      <c r="BM8">
+        <v>0.82191999999999998</v>
+      </c>
+      <c r="BN8">
+        <v>0.81616</v>
+      </c>
+      <c r="BO8">
+        <v>0.82508000000000004</v>
+      </c>
+      <c r="BP8">
+        <v>0.82992999999999995</v>
+      </c>
+      <c r="BQ8">
+        <v>0.85174000000000005</v>
+      </c>
+      <c r="BR8">
+        <v>0.82882999999999996</v>
+      </c>
+      <c r="BS8">
+        <v>0.82355</v>
+      </c>
+      <c r="BT8">
+        <v>0.81784000000000001</v>
+      </c>
+      <c r="BU8">
+        <v>0.83550999999999997</v>
+      </c>
+      <c r="BV8">
+        <v>0.82408000000000003</v>
+      </c>
+      <c r="BW8">
+        <v>0.83303000000000005</v>
+      </c>
+      <c r="BX8">
+        <v>0.82086000000000003</v>
+      </c>
+      <c r="BY8">
+        <v>0.83470999999999995</v>
+      </c>
+      <c r="BZ8">
+        <v>0.85916000000000003</v>
+      </c>
+      <c r="CA8">
+        <v>0.82474000000000003</v>
+      </c>
+      <c r="CB8">
+        <v>0.79464999999999997</v>
+      </c>
+      <c r="CC8">
+        <v>0.83364000000000005</v>
+      </c>
+      <c r="CD8">
+        <v>0.83435999999999999</v>
+      </c>
+      <c r="CE8">
+        <v>0.82126999999999994</v>
+      </c>
+      <c r="CF8">
+        <v>0.82842000000000005</v>
+      </c>
+      <c r="CG8">
+        <v>0.81876000000000004</v>
+      </c>
+      <c r="CH8">
+        <v>0.83323999999999998</v>
+      </c>
+      <c r="CI8">
+        <v>0.80786999999999998</v>
+      </c>
+      <c r="CJ8">
+        <v>0.84348999999999996</v>
+      </c>
+      <c r="CK8">
+        <v>0.82950000000000002</v>
+      </c>
+      <c r="CL8">
+        <v>0.79935</v>
+      </c>
+      <c r="CM8">
+        <v>0.83567000000000002</v>
+      </c>
+      <c r="CN8">
+        <v>0.83345999999999998</v>
+      </c>
+      <c r="CO8">
+        <v>0.85460000000000003</v>
+      </c>
+      <c r="CP8">
+        <v>0.85148000000000001</v>
+      </c>
+      <c r="CQ8">
+        <v>0.83011000000000001</v>
+      </c>
+      <c r="CR8">
+        <v>0.83650999999999998</v>
+      </c>
+      <c r="CS8">
+        <v>0.81481999999999999</v>
+      </c>
+      <c r="CT8">
+        <v>0.81440000000000001</v>
+      </c>
+      <c r="CU8">
+        <v>0.82877000000000001</v>
+      </c>
+      <c r="CV8">
+        <v>0.83153999999999995</v>
+      </c>
+      <c r="CW8">
+        <v>0.82652440000000016</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.84455000000000002</v>
-      </c>
-      <c r="B5">
-        <v>0.83492999999999995</v>
-      </c>
-      <c r="C5">
-        <v>0.83973999999999993</v>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.8518</v>
+      </c>
+      <c r="B9">
+        <v>0.83775999999999995</v>
+      </c>
+      <c r="C9">
+        <v>0.83245999999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.83826000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.81654000000000004</v>
+      </c>
+      <c r="F9">
+        <v>0.81747000000000003</v>
+      </c>
+      <c r="G9">
+        <v>0.82877000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.81342999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.84543000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.80923999999999996</v>
+      </c>
+      <c r="K9">
+        <v>0.82608000000000004</v>
+      </c>
+      <c r="L9">
+        <v>0.82840999999999998</v>
+      </c>
+      <c r="M9">
+        <v>0.81977</v>
+      </c>
+      <c r="N9">
+        <v>0.82508000000000004</v>
+      </c>
+      <c r="O9">
+        <v>0.83906999999999998</v>
+      </c>
+      <c r="P9">
+        <v>0.81086000000000003</v>
+      </c>
+      <c r="Q9">
+        <v>0.84487999999999996</v>
+      </c>
+      <c r="R9">
+        <v>0.83904000000000001</v>
+      </c>
+      <c r="S9">
+        <v>0.82418000000000002</v>
+      </c>
+      <c r="T9">
+        <v>0.83931</v>
+      </c>
+      <c r="U9">
+        <v>0.82618999999999998</v>
+      </c>
+      <c r="V9">
+        <v>0.82391000000000003</v>
+      </c>
+      <c r="W9">
+        <v>0.84157000000000004</v>
+      </c>
+      <c r="X9">
+        <v>0.82969999999999999</v>
+      </c>
+      <c r="Y9">
+        <v>0.84558</v>
+      </c>
+      <c r="Z9">
+        <v>0.80517000000000005</v>
+      </c>
+      <c r="AA9">
+        <v>0.85133000000000003</v>
+      </c>
+      <c r="AB9">
+        <v>0.84658999999999995</v>
+      </c>
+      <c r="AC9">
+        <v>0.83074000000000003</v>
+      </c>
+      <c r="AD9">
+        <v>0.84084000000000003</v>
+      </c>
+      <c r="AE9">
+        <v>0.82116</v>
+      </c>
+      <c r="AF9">
+        <v>0.82972000000000001</v>
+      </c>
+      <c r="AG9">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="AH9">
+        <v>0.83867999999999998</v>
+      </c>
+      <c r="AI9">
+        <v>0.84431999999999996</v>
+      </c>
+      <c r="AJ9">
+        <v>0.83091000000000004</v>
+      </c>
+      <c r="AK9">
+        <v>0.82313999999999998</v>
+      </c>
+      <c r="AL9">
+        <v>0.82267000000000001</v>
+      </c>
+      <c r="AM9">
+        <v>0.83416000000000001</v>
+      </c>
+      <c r="AN9">
+        <v>0.82391999999999999</v>
+      </c>
+      <c r="AO9">
+        <v>0.84482000000000002</v>
+      </c>
+      <c r="AP9">
+        <v>0.83009999999999995</v>
+      </c>
+      <c r="AQ9">
+        <v>0.83367999999999998</v>
+      </c>
+      <c r="AR9">
+        <v>0.82793000000000005</v>
+      </c>
+      <c r="AS9">
+        <v>0.84213000000000005</v>
+      </c>
+      <c r="AT9">
+        <v>0.81376999999999999</v>
+      </c>
+      <c r="AU9">
+        <v>0.82906999999999997</v>
+      </c>
+      <c r="AV9">
+        <v>0.84179000000000004</v>
+      </c>
+      <c r="AW9">
+        <v>0.82623000000000002</v>
+      </c>
+      <c r="AX9">
+        <v>0.82740999999999998</v>
+      </c>
+      <c r="AY9">
+        <v>0.80752000000000002</v>
+      </c>
+      <c r="AZ9">
+        <v>0.81176999999999999</v>
+      </c>
+      <c r="BA9">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="BB9">
+        <v>0.83067999999999997</v>
+      </c>
+      <c r="BC9">
+        <v>0.84757000000000005</v>
+      </c>
+      <c r="BD9">
+        <v>0.83709999999999996</v>
+      </c>
+      <c r="BE9">
+        <v>0.83855000000000002</v>
+      </c>
+      <c r="BF9">
+        <v>0.84558</v>
+      </c>
+      <c r="BG9">
+        <v>0.82294999999999996</v>
+      </c>
+      <c r="BH9">
+        <v>0.84226999999999996</v>
+      </c>
+      <c r="BI9">
+        <v>0.84052000000000004</v>
+      </c>
+      <c r="BJ9">
+        <v>0.84221999999999997</v>
+      </c>
+      <c r="BK9">
+        <v>0.84694000000000003</v>
+      </c>
+      <c r="BL9">
+        <v>0.83025000000000004</v>
+      </c>
+      <c r="BM9">
+        <v>0.81108000000000002</v>
+      </c>
+      <c r="BN9">
+        <v>0.83267999999999998</v>
+      </c>
+      <c r="BO9">
+        <v>0.80205000000000004</v>
+      </c>
+      <c r="BP9">
+        <v>0.82587999999999995</v>
+      </c>
+      <c r="BQ9">
+        <v>0.82940000000000003</v>
+      </c>
+      <c r="BR9">
+        <v>0.82332000000000005</v>
+      </c>
+      <c r="BS9">
+        <v>0.82496999999999998</v>
+      </c>
+      <c r="BT9">
+        <v>0.82320000000000004</v>
+      </c>
+      <c r="BU9">
+        <v>0.83899000000000001</v>
+      </c>
+      <c r="BV9">
+        <v>0.84750999999999999</v>
+      </c>
+      <c r="BW9">
+        <v>0.82149000000000005</v>
+      </c>
+      <c r="BX9">
+        <v>0.83977999999999997</v>
+      </c>
+      <c r="BY9">
+        <v>0.81227000000000005</v>
+      </c>
+      <c r="BZ9">
+        <v>0.81772</v>
+      </c>
+      <c r="CA9">
+        <v>0.84589999999999999</v>
+      </c>
+      <c r="CB9">
+        <v>0.82511000000000001</v>
+      </c>
+      <c r="CC9">
+        <v>0.80574000000000001</v>
+      </c>
+      <c r="CD9">
+        <v>0.82032000000000005</v>
+      </c>
+      <c r="CE9">
+        <v>0.83774999999999999</v>
+      </c>
+      <c r="CF9">
+        <v>0.8206</v>
+      </c>
+      <c r="CG9">
+        <v>0.81589</v>
+      </c>
+      <c r="CH9">
+        <v>0.81855999999999995</v>
+      </c>
+      <c r="CI9">
+        <v>0.81164000000000003</v>
+      </c>
+      <c r="CJ9">
+        <v>0.81506999999999996</v>
+      </c>
+      <c r="CK9">
+        <v>0.82371000000000005</v>
+      </c>
+      <c r="CL9">
+        <v>0.80532999999999999</v>
+      </c>
+      <c r="CM9">
+        <v>0.82116</v>
+      </c>
+      <c r="CN9">
+        <v>0.84884999999999999</v>
+      </c>
+      <c r="CO9">
+        <v>0.82931999999999995</v>
+      </c>
+      <c r="CP9">
+        <v>0.81186999999999998</v>
+      </c>
+      <c r="CQ9">
+        <v>0.81037000000000003</v>
+      </c>
+      <c r="CR9">
+        <v>0.82033999999999996</v>
+      </c>
+      <c r="CS9">
+        <v>0.82474000000000003</v>
+      </c>
+      <c r="CT9">
+        <v>0.84611000000000003</v>
+      </c>
+      <c r="CU9">
+        <v>0.82396000000000003</v>
+      </c>
+      <c r="CV9">
+        <v>0.82579000000000002</v>
+      </c>
+      <c r="CW9">
+        <v>0.82878859999999988</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.83879000000000004</v>
-      </c>
-      <c r="B6">
-        <v>0.82745999999999997</v>
-      </c>
-      <c r="C6">
-        <v>0.833125</v>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="B10">
+        <v>0.83216999999999997</v>
+      </c>
+      <c r="C10">
+        <v>0.82467999999999997</v>
+      </c>
+      <c r="D10">
+        <v>0.81438999999999995</v>
+      </c>
+      <c r="E10">
+        <v>0.81483000000000005</v>
+      </c>
+      <c r="F10">
+        <v>0.83947000000000005</v>
+      </c>
+      <c r="G10">
+        <v>0.81730999999999998</v>
+      </c>
+      <c r="H10">
+        <v>0.80835999999999997</v>
+      </c>
+      <c r="I10">
+        <v>0.84060000000000001</v>
+      </c>
+      <c r="J10">
+        <v>0.82859000000000005</v>
+      </c>
+      <c r="K10">
+        <v>0.83543999999999996</v>
+      </c>
+      <c r="L10">
+        <v>0.82045999999999997</v>
+      </c>
+      <c r="M10">
+        <v>0.82454000000000005</v>
+      </c>
+      <c r="N10">
+        <v>0.81410000000000005</v>
+      </c>
+      <c r="O10">
+        <v>0.83118000000000003</v>
+      </c>
+      <c r="P10">
+        <v>0.82387999999999995</v>
+      </c>
+      <c r="Q10">
+        <v>0.81303000000000003</v>
+      </c>
+      <c r="R10">
+        <v>0.82079000000000002</v>
+      </c>
+      <c r="S10">
+        <v>0.81674000000000002</v>
+      </c>
+      <c r="T10">
+        <v>0.81498999999999999</v>
+      </c>
+      <c r="U10">
+        <v>0.81920999999999999</v>
+      </c>
+      <c r="V10">
+        <v>0.79995000000000005</v>
+      </c>
+      <c r="W10">
+        <v>0.80301999999999996</v>
+      </c>
+      <c r="X10">
+        <v>0.82211000000000001</v>
+      </c>
+      <c r="Y10">
+        <v>0.82981000000000005</v>
+      </c>
+      <c r="Z10">
+        <v>0.83694999999999997</v>
+      </c>
+      <c r="AA10">
+        <v>0.81818000000000002</v>
+      </c>
+      <c r="AB10">
+        <v>0.82626999999999995</v>
+      </c>
+      <c r="AC10">
+        <v>0.83303000000000005</v>
+      </c>
+      <c r="AD10">
+        <v>0.81982999999999995</v>
+      </c>
+      <c r="AE10">
+        <v>0.82933999999999997</v>
+      </c>
+      <c r="AF10">
+        <v>0.83013999999999999</v>
+      </c>
+      <c r="AG10">
+        <v>0.83687999999999996</v>
+      </c>
+      <c r="AH10">
+        <v>0.82977000000000001</v>
+      </c>
+      <c r="AI10">
+        <v>0.83803000000000005</v>
+      </c>
+      <c r="AJ10">
+        <v>0.83618999999999999</v>
+      </c>
+      <c r="AK10">
+        <v>0.80347999999999997</v>
+      </c>
+      <c r="AL10">
+        <v>0.82157999999999998</v>
+      </c>
+      <c r="AM10">
+        <v>0.79874999999999996</v>
+      </c>
+      <c r="AN10">
+        <v>0.81625999999999999</v>
+      </c>
+      <c r="AO10">
+        <v>0.84035000000000004</v>
+      </c>
+      <c r="AP10">
+        <v>0.79159000000000002</v>
+      </c>
+      <c r="AQ10">
+        <v>0.82299</v>
+      </c>
+      <c r="AR10">
+        <v>0.81730999999999998</v>
+      </c>
+      <c r="AS10">
+        <v>0.80166000000000004</v>
+      </c>
+      <c r="AT10">
+        <v>0.80635999999999997</v>
+      </c>
+      <c r="AU10">
+        <v>0.83992</v>
+      </c>
+      <c r="AV10">
+        <v>0.81649000000000005</v>
+      </c>
+      <c r="AW10">
+        <v>0.82294999999999996</v>
+      </c>
+      <c r="AX10">
+        <v>0.83057999999999998</v>
+      </c>
+      <c r="AY10">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="AZ10">
+        <v>0.81974999999999998</v>
+      </c>
+      <c r="BA10">
+        <v>0.81340000000000001</v>
+      </c>
+      <c r="BB10">
+        <v>0.84762000000000004</v>
+      </c>
+      <c r="BC10">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="BD10">
+        <v>0.82335999999999998</v>
+      </c>
+      <c r="BE10">
+        <v>0.83130999999999999</v>
+      </c>
+      <c r="BF10">
+        <v>0.80767</v>
+      </c>
+      <c r="BG10">
+        <v>0.82079999999999997</v>
+      </c>
+      <c r="BH10">
+        <v>0.82191999999999998</v>
+      </c>
+      <c r="BI10">
+        <v>0.83926999999999996</v>
+      </c>
+      <c r="BJ10">
+        <v>0.80959999999999999</v>
+      </c>
+      <c r="BK10">
+        <v>0.83789999999999998</v>
+      </c>
+      <c r="BL10">
+        <v>0.79085000000000005</v>
+      </c>
+      <c r="BM10">
+        <v>0.82091999999999998</v>
+      </c>
+      <c r="BN10">
+        <v>0.85014000000000001</v>
+      </c>
+      <c r="BO10">
+        <v>0.79978000000000005</v>
+      </c>
+      <c r="BP10">
+        <v>0.81762000000000001</v>
+      </c>
+      <c r="BQ10">
+        <v>0.84658999999999995</v>
+      </c>
+      <c r="BR10">
+        <v>0.82147000000000003</v>
+      </c>
+      <c r="BS10">
+        <v>0.84802999999999995</v>
+      </c>
+      <c r="BT10">
+        <v>0.80842999999999998</v>
+      </c>
+      <c r="BU10">
+        <v>0.81118999999999997</v>
+      </c>
+      <c r="BV10">
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="BW10">
+        <v>0.82730000000000004</v>
+      </c>
+      <c r="BX10">
+        <v>0.83226</v>
+      </c>
+      <c r="BY10">
+        <v>0.82552000000000003</v>
+      </c>
+      <c r="BZ10">
+        <v>0.82384999999999997</v>
+      </c>
+      <c r="CA10">
+        <v>0.81223000000000001</v>
+      </c>
+      <c r="CB10">
+        <v>0.82738</v>
+      </c>
+      <c r="CC10">
+        <v>0.84106999999999998</v>
+      </c>
+      <c r="CD10">
+        <v>0.83662000000000003</v>
+      </c>
+      <c r="CE10">
+        <v>0.82411999999999996</v>
+      </c>
+      <c r="CF10">
+        <v>0.79598999999999998</v>
+      </c>
+      <c r="CG10">
+        <v>0.84233999999999998</v>
+      </c>
+      <c r="CH10">
+        <v>0.82899</v>
+      </c>
+      <c r="CI10">
+        <v>0.79332999999999998</v>
+      </c>
+      <c r="CJ10">
+        <v>0.82382</v>
+      </c>
+      <c r="CK10">
+        <v>0.83314999999999995</v>
+      </c>
+      <c r="CL10">
+        <v>0.83040000000000003</v>
+      </c>
+      <c r="CM10">
+        <v>0.85414000000000001</v>
+      </c>
+      <c r="CN10">
+        <v>0.81460999999999995</v>
+      </c>
+      <c r="CO10">
+        <v>0.84996000000000005</v>
+      </c>
+      <c r="CP10">
+        <v>0.81316999999999995</v>
+      </c>
+      <c r="CQ10">
+        <v>0.85165000000000002</v>
+      </c>
+      <c r="CR10">
+        <v>0.82033</v>
+      </c>
+      <c r="CS10">
+        <v>0.82984999999999998</v>
+      </c>
+      <c r="CT10">
+        <v>0.82726</v>
+      </c>
+      <c r="CU10">
+        <v>0.82079999999999997</v>
+      </c>
+      <c r="CV10">
+        <v>0.83735000000000004</v>
+      </c>
+      <c r="CW10">
+        <v>0.8236583999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.82274000000000003</v>
-      </c>
-      <c r="B7">
-        <v>0.83548</v>
-      </c>
-      <c r="C7">
-        <v>0.82911000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.81979000000000002</v>
-      </c>
-      <c r="B8">
-        <v>0.81616</v>
-      </c>
-      <c r="C8">
-        <v>0.81797500000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.82247000000000003</v>
-      </c>
-      <c r="B9">
-        <v>0.84145999999999999</v>
-      </c>
-      <c r="C9">
-        <v>0.83196500000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.80406999999999995</v>
-      </c>
-      <c r="B10">
-        <v>0.82684000000000002</v>
-      </c>
-      <c r="C10">
-        <v>0.81545500000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.84904000000000002</v>
+        <v>0.82396000000000003</v>
       </c>
       <c r="B11">
-        <v>0.82950999999999997</v>
+        <v>0.8397</v>
       </c>
       <c r="C11">
-        <v>0.83927499999999999</v>
+        <v>0.82235000000000003</v>
+      </c>
+      <c r="D11">
+        <v>0.82828000000000002</v>
+      </c>
+      <c r="E11">
+        <v>0.81537999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.81233999999999995</v>
+      </c>
+      <c r="G11">
+        <v>0.83830000000000005</v>
+      </c>
+      <c r="H11">
+        <v>0.83016000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.82067000000000001</v>
+      </c>
+      <c r="J11">
+        <v>0.80354999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.82303000000000004</v>
+      </c>
+      <c r="L11">
+        <v>0.81852999999999998</v>
+      </c>
+      <c r="M11">
+        <v>0.81662000000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.80771999999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.82865999999999995</v>
+      </c>
+      <c r="P11">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="Q11">
+        <v>0.82733999999999996</v>
+      </c>
+      <c r="R11">
+        <v>0.82613000000000003</v>
+      </c>
+      <c r="S11">
+        <v>0.81428</v>
+      </c>
+      <c r="T11">
+        <v>0.81637000000000004</v>
+      </c>
+      <c r="U11">
+        <v>0.82777999999999996</v>
+      </c>
+      <c r="V11">
+        <v>0.80652000000000001</v>
+      </c>
+      <c r="W11">
+        <v>0.79959000000000002</v>
+      </c>
+      <c r="X11">
+        <v>0.81233999999999995</v>
+      </c>
+      <c r="Y11">
+        <v>0.84028999999999998</v>
+      </c>
+      <c r="Z11">
+        <v>0.82142000000000004</v>
+      </c>
+      <c r="AA11">
+        <v>0.81603999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>0.81274999999999997</v>
+      </c>
+      <c r="AC11">
+        <v>0.83325000000000005</v>
+      </c>
+      <c r="AD11">
+        <v>0.81589</v>
+      </c>
+      <c r="AE11">
+        <v>0.82957999999999998</v>
+      </c>
+      <c r="AF11">
+        <v>0.81713000000000002</v>
+      </c>
+      <c r="AG11">
+        <v>0.81116999999999995</v>
+      </c>
+      <c r="AH11">
+        <v>0.82423999999999997</v>
+      </c>
+      <c r="AI11">
+        <v>0.80149000000000004</v>
+      </c>
+      <c r="AJ11">
+        <v>0.79996999999999996</v>
+      </c>
+      <c r="AK11">
+        <v>0.82754000000000005</v>
+      </c>
+      <c r="AL11">
+        <v>0.81552000000000002</v>
+      </c>
+      <c r="AM11">
+        <v>0.80906</v>
+      </c>
+      <c r="AN11">
+        <v>0.79581999999999997</v>
+      </c>
+      <c r="AO11">
+        <v>0.81506999999999996</v>
+      </c>
+      <c r="AP11">
+        <v>0.81154000000000004</v>
+      </c>
+      <c r="AQ11">
+        <v>0.80859000000000003</v>
+      </c>
+      <c r="AR11">
+        <v>0.83472999999999997</v>
+      </c>
+      <c r="AS11">
+        <v>0.80112000000000005</v>
+      </c>
+      <c r="AT11">
+        <v>0.82181999999999999</v>
+      </c>
+      <c r="AU11">
+        <v>0.85926999999999998</v>
+      </c>
+      <c r="AV11">
+        <v>0.84843000000000002</v>
+      </c>
+      <c r="AW11">
+        <v>0.83628999999999998</v>
+      </c>
+      <c r="AX11">
+        <v>0.80635999999999997</v>
+      </c>
+      <c r="AY11">
+        <v>0.81749000000000005</v>
+      </c>
+      <c r="AZ11">
+        <v>0.8498</v>
+      </c>
+      <c r="BA11">
+        <v>0.80484999999999995</v>
+      </c>
+      <c r="BB11">
+        <v>0.81623000000000001</v>
+      </c>
+      <c r="BC11">
+        <v>0.81684000000000001</v>
+      </c>
+      <c r="BD11">
+        <v>0.81025999999999998</v>
+      </c>
+      <c r="BE11">
+        <v>0.82965999999999995</v>
+      </c>
+      <c r="BF11">
+        <v>0.82648999999999995</v>
+      </c>
+      <c r="BG11">
+        <v>0.82421999999999995</v>
+      </c>
+      <c r="BH11">
+        <v>0.80571000000000004</v>
+      </c>
+      <c r="BI11">
+        <v>0.83021</v>
+      </c>
+      <c r="BJ11">
+        <v>0.82447000000000004</v>
+      </c>
+      <c r="BK11">
+        <v>0.81593000000000004</v>
+      </c>
+      <c r="BL11">
+        <v>0.83735000000000004</v>
+      </c>
+      <c r="BM11">
+        <v>0.82635000000000003</v>
+      </c>
+      <c r="BN11">
+        <v>0.81211</v>
+      </c>
+      <c r="BO11">
+        <v>0.83109</v>
+      </c>
+      <c r="BP11">
+        <v>0.79669000000000001</v>
+      </c>
+      <c r="BQ11">
+        <v>0.80022000000000004</v>
+      </c>
+      <c r="BR11">
+        <v>0.81933</v>
+      </c>
+      <c r="BS11">
+        <v>0.82869000000000004</v>
+      </c>
+      <c r="BT11">
+        <v>0.80518000000000001</v>
+      </c>
+      <c r="BU11">
+        <v>0.81023000000000001</v>
+      </c>
+      <c r="BV11">
+        <v>0.84402999999999995</v>
+      </c>
+      <c r="BW11">
+        <v>0.81205000000000005</v>
+      </c>
+      <c r="BX11">
+        <v>0.83206999999999998</v>
+      </c>
+      <c r="BY11">
+        <v>0.82565999999999995</v>
+      </c>
+      <c r="BZ11">
+        <v>0.80201999999999996</v>
+      </c>
+      <c r="CA11">
+        <v>0.83557999999999999</v>
+      </c>
+      <c r="CB11">
+        <v>0.83145000000000002</v>
+      </c>
+      <c r="CC11">
+        <v>0.81366000000000005</v>
+      </c>
+      <c r="CD11">
+        <v>0.81989000000000001</v>
+      </c>
+      <c r="CE11">
+        <v>0.8266</v>
+      </c>
+      <c r="CF11">
+        <v>0.83996000000000004</v>
+      </c>
+      <c r="CG11">
+        <v>0.81015000000000004</v>
+      </c>
+      <c r="CH11">
+        <v>0.80449000000000004</v>
+      </c>
+      <c r="CI11">
+        <v>0.82862999999999998</v>
+      </c>
+      <c r="CJ11">
+        <v>0.81991999999999998</v>
+      </c>
+      <c r="CK11">
+        <v>0.83909</v>
+      </c>
+      <c r="CL11">
+        <v>0.83621999999999996</v>
+      </c>
+      <c r="CM11">
+        <v>0.83887999999999996</v>
+      </c>
+      <c r="CN11">
+        <v>0.83740000000000003</v>
+      </c>
+      <c r="CO11">
+        <v>0.82657999999999998</v>
+      </c>
+      <c r="CP11">
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="CQ11">
+        <v>0.82077</v>
+      </c>
+      <c r="CR11">
+        <v>0.85162000000000004</v>
+      </c>
+      <c r="CS11">
+        <v>0.83533000000000002</v>
+      </c>
+      <c r="CT11">
+        <v>0.84336999999999995</v>
+      </c>
+      <c r="CU11">
+        <v>0.81730000000000003</v>
+      </c>
+      <c r="CV11">
+        <v>0.85792999999999997</v>
+      </c>
+      <c r="CW11">
+        <v>0.82222729999999966</v>
       </c>
     </row>
   </sheetData>
